--- a/resources/Lecture 06 - P3.xlsx
+++ b/resources/Lecture 06 - P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ioasiitm-my.sharepoint.com/personal/anmpahwa_icsrpis_iitm_ac_in/Documents/Academia/IIT Madras/Teaching/CE5972/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3150" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7D4372-BD39-402D-A9CF-0927065BDDAD}"/>
+  <xr:revisionPtr revIDLastSave="3151" documentId="11_F25DC773A252ABDACC1048F1295C58385BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B356E5-691A-4B82-BC4D-4BE043971552}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="3675" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Constraint Parameter (Coefficients)</t>
-  </si>
-  <si>
-    <t>Slack</t>
   </si>
   <si>
     <t>Constraint Parameter (Limits)</t>
@@ -514,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -928,7 +925,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,23 +1038,20 @@
         <v>102700</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>B21 * B$3 + C21 * B$4 + D21 * B$5 + E21 * B$6 + F21 * B$7 + G21 * B$8</f>
         <v>20</v>
@@ -1066,12 +1060,8 @@
         <f>B35</f>
         <v>20</v>
       </c>
-      <c r="C52" s="1">
-        <f>A52-B52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f t="shared" ref="A53:A62" si="0">B22 * B$3 + C22 * B$4 + D22 * B$5 + E22 * B$6 + F22 * B$7 + G22 * B$8</f>
         <v>17</v>
@@ -1080,12 +1070,8 @@
         <f>B36</f>
         <v>15</v>
       </c>
-      <c r="C53" s="1">
-        <f>A53-B53</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1094,12 +1080,8 @@
         <f>B37</f>
         <v>8</v>
       </c>
-      <c r="C54" s="1">
-        <f>A54-B54</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1108,12 +1090,8 @@
         <f t="shared" ref="B55:B62" si="1">B38</f>
         <v>10</v>
       </c>
-      <c r="C55" s="1">
-        <f t="shared" ref="C55:C57" si="2">A55-B55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1122,12 +1100,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1136,12 +1110,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1150,12 +1120,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" ref="C56:C62" si="3">B58-A58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1164,12 +1130,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1178,12 +1140,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C60" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>-7</v>
@@ -1192,12 +1150,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1205,10 +1159,6 @@
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
